--- a/Code/Resultados_Analisis/Ciudades/Peachtree_GA/Peachtree_GA_datos_procesados.xlsx
+++ b/Code/Resultados_Analisis/Ciudades/Peachtree_GA/Peachtree_GA_datos_procesados.xlsx
@@ -1022,7 +1022,7 @@
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV3" t="n">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_mean</t>
+          <t>cul_de_sac_bajo_mean</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="BB3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV4" t="n">
@@ -1210,12 +1210,12 @@
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>organico_bajo_mean</t>
+          <t>cul_de_sac_bajo_mean</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="BB4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1558,12 +1558,12 @@
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>organico_alto_mean</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV7" t="n">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="BB7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV8" t="n">
@@ -1906,12 +1906,12 @@
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac_alto_mean</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="BB8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV9" t="n">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_mean</t>
+          <t>cul_de_sac_bajo_mean</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="BB9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2254,12 +2254,12 @@
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>organico_bajo_mean</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV11" t="n">
@@ -2428,12 +2428,12 @@
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>organico_bajo_mean</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="BB11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV12" t="n">
@@ -2602,12 +2602,12 @@
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>organico_alto_mean</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="BB12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>cul_de_sac_bajo_mean</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV14" t="n">
@@ -2950,12 +2950,12 @@
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>organico_alto_mean</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="BB14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_mean</t>
+          <t>cul_de_sac_bajo_mean</t>
         </is>
       </c>
       <c r="BA15" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_mean</t>
+          <t>cul_de_sac_bajo_mean</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">

--- a/Code/Resultados_Analisis/Ciudades/Peachtree_GA/Peachtree_GA_datos_procesados.xlsx
+++ b/Code/Resultados_Analisis/Ciudades/Peachtree_GA/Peachtree_GA_datos_procesados.xlsx
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="BB2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_mean</t>
+          <t>cul_de_sac_alto_mean</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="BB5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_mean</t>
+          <t>cul_de_sac_alto_mean</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV10" t="n">
@@ -2254,12 +2254,12 @@
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac_bajo_mean</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="BB10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV11" t="n">
@@ -2428,12 +2428,12 @@
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac_bajo_mean</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="BB11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_mean</t>
+          <t>cul_de_sac_alto_mean</t>
         </is>
       </c>
       <c r="BA15" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_mean</t>
+          <t>cul_de_sac_alto_mean</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">

--- a/Code/Resultados_Analisis/Ciudades/Peachtree_GA/Peachtree_GA_datos_procesados.xlsx
+++ b/Code/Resultados_Analisis/Ciudades/Peachtree_GA/Peachtree_GA_datos_procesados.xlsx
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="BB2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="BB5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AV11" t="n">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
